--- a/Miriam/Assignment 1/Question1cluster2.xlsx
+++ b/Miriam/Assignment 1/Question1cluster2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EEDF5D-2D81-4979-93CC-2E5E99085C65}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E534947-E314-4243-8986-A47BA84154DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,115 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>amount_req_ 4</t>
-  </si>
-  <si>
-    <t>amount_req_ 5</t>
-  </si>
-  <si>
-    <t>amount_req_ 6</t>
-  </si>
-  <si>
-    <t>amount_req_ 7</t>
-  </si>
-  <si>
-    <t>amount_req_ 8</t>
-  </si>
-  <si>
-    <t>amount_req_ 9</t>
-  </si>
-  <si>
-    <t>amount_req_10</t>
-  </si>
-  <si>
-    <t>amount_req_11</t>
-  </si>
-  <si>
-    <t>amount_req_12</t>
-  </si>
-  <si>
-    <t>amount_req_13</t>
-  </si>
-  <si>
-    <t>case_duration_ 1</t>
-  </si>
-  <si>
-    <t>case_duration_ 2</t>
-  </si>
-  <si>
-    <t>case_duration_ 3</t>
-  </si>
-  <si>
-    <t>case_duration_ 4</t>
-  </si>
-  <si>
-    <t>case_duration_ 5</t>
-  </si>
-  <si>
-    <t>case_duration_ 6</t>
-  </si>
-  <si>
-    <t>case_duration_ 7</t>
-  </si>
-  <si>
-    <t>case_duration_ 8</t>
-  </si>
-  <si>
-    <t>case_duration_ 9</t>
-  </si>
-  <si>
-    <t>case_duration_10</t>
-  </si>
-  <si>
-    <t>case_duration_11</t>
-  </si>
-  <si>
-    <t>case_duration_12</t>
-  </si>
-  <si>
-    <t>case_duration_13</t>
-  </si>
-  <si>
-    <t>total_activities_ 1</t>
-  </si>
-  <si>
-    <t>total_activities_ 2</t>
-  </si>
-  <si>
-    <t>total_activities_ 3</t>
-  </si>
-  <si>
-    <t>total_activities_ 4</t>
-  </si>
-  <si>
-    <t>total_activities_ 5</t>
-  </si>
-  <si>
-    <t>total_activities_ 6</t>
-  </si>
-  <si>
-    <t>total_activities_ 7</t>
-  </si>
-  <si>
-    <t>total_activities_ 8</t>
-  </si>
-  <si>
-    <t>total_activities_ 9</t>
-  </si>
-  <si>
-    <t>total_activities_10</t>
-  </si>
-  <si>
-    <t>total_activities_11</t>
-  </si>
-  <si>
-    <t>total_activities_12</t>
-  </si>
-  <si>
-    <t>total_activities_13</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>amount_req</t>
   </si>
@@ -454,9 +346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -471,300 +365,84 @@
     <col min="36" max="39" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>7000</v>
+      </c>
+      <c r="B2">
+        <v>0.29309000000000002</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>15000</v>
+      </c>
+      <c r="B3">
+        <v>28.439640000000001</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6000</v>
+      </c>
+      <c r="B4">
+        <v>4.8205999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>12.950229999999999</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2500</v>
+      </c>
+      <c r="B6">
+        <v>2.1134E-2</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>13000</v>
-      </c>
-      <c r="B2">
-        <v>0.515625</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>3000</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>13000</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5000</v>
       </c>
-      <c r="I2">
-        <v>7500</v>
-      </c>
-      <c r="J2">
-        <v>6000</v>
-      </c>
-      <c r="K2">
-        <v>25000</v>
-      </c>
-      <c r="L2">
-        <v>17000</v>
-      </c>
-      <c r="M2">
-        <v>3000</v>
-      </c>
-      <c r="N2">
-        <v>0.515625</v>
-      </c>
-      <c r="O2">
-        <v>0.48986099999999999</v>
-      </c>
-      <c r="P2">
-        <v>1.375E-2</v>
-      </c>
-      <c r="Q2">
-        <v>6.9553820000000002</v>
-      </c>
-      <c r="R2">
-        <v>4.8205999999999999E-2</v>
-      </c>
-      <c r="S2">
-        <v>12.950229999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.515625</v>
-      </c>
-      <c r="U2">
-        <v>7.612419</v>
-      </c>
-      <c r="V2">
-        <v>0.48986099999999999</v>
-      </c>
-      <c r="W2">
-        <v>6.5038080000000003</v>
-      </c>
-      <c r="X2">
-        <v>21.145060000000001</v>
-      </c>
-      <c r="Y2">
-        <v>1.375E-2</v>
-      </c>
-      <c r="Z2">
-        <v>6.9553820000000002</v>
-      </c>
-      <c r="AA2">
-        <v>10</v>
-      </c>
-      <c r="AB2">
-        <v>11</v>
-      </c>
-      <c r="AC2">
-        <v>12</v>
-      </c>
-      <c r="AD2">
-        <v>15</v>
-      </c>
-      <c r="AE2">
-        <v>25</v>
-      </c>
-      <c r="AF2">
-        <v>26</v>
-      </c>
-      <c r="AG2">
-        <v>10</v>
-      </c>
-      <c r="AH2">
-        <v>25</v>
-      </c>
-      <c r="AI2">
-        <v>11</v>
-      </c>
-      <c r="AJ2">
-        <v>22</v>
-      </c>
-      <c r="AK2">
-        <v>41</v>
-      </c>
-      <c r="AL2">
-        <v>12</v>
-      </c>
-      <c r="AM2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>7500</v>
-      </c>
-      <c r="B3">
-        <v>0.48986099999999999</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>17000</v>
-      </c>
-      <c r="B4">
-        <v>1.375E-2</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3000</v>
-      </c>
-      <c r="B5">
-        <v>6.9553820000000002</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6000</v>
-      </c>
-      <c r="B6">
-        <v>4.8205999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>10000</v>
-      </c>
       <c r="B7">
-        <v>12.950229999999999</v>
+        <v>29.51885</v>
       </c>
       <c r="C7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>13000</v>
       </c>
@@ -775,7 +453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -786,7 +464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7500</v>
       </c>
@@ -797,7 +475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6000</v>
       </c>
@@ -808,36 +486,113 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="B12">
-        <v>21.145060000000001</v>
+        <v>2.049E-3</v>
       </c>
       <c r="C12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>7.9900000000000001E-4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7800</v>
+      </c>
+      <c r="B14">
+        <v>19.1099</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8500</v>
+      </c>
+      <c r="B15">
+        <v>4.86E-4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3000</v>
+      </c>
+      <c r="B16">
+        <v>6.9553820000000002</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>7.9900000000000001E-4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>7800</v>
+      </c>
+      <c r="B18">
+        <v>19.1099</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8500</v>
+      </c>
+      <c r="B19">
+        <v>4.86E-4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>17000</v>
       </c>
-      <c r="B13">
+      <c r="B20">
         <v>1.375E-2</v>
       </c>
-      <c r="C13">
+      <c r="C20">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>3000</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>6.9553820000000002</v>
       </c>
-      <c r="C14">
+      <c r="C21">
         <v>15</v>
       </c>
     </row>
